--- a/f1.xlsx
+++ b/f1.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t xml:space="preserve">شهرستان</t>
   </si>
   <si>
-    <t xml:space="preserve">دشت</t>
+    <t xml:space="preserve">نام دشت</t>
   </si>
   <si>
     <t xml:space="preserve">امور آب تابعه</t>
@@ -34,12 +34,21 @@
     <t xml:space="preserve">نام منبع</t>
   </si>
   <si>
+    <t xml:space="preserve">ش. پروانه بهره برداری</t>
+  </si>
+  <si>
     <t xml:space="preserve">شماره کلاسه پرونده</t>
   </si>
   <si>
     <t xml:space="preserve">نوع مصرف</t>
   </si>
   <si>
+    <t xml:space="preserve">ریز مصرف 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نام ثبت شده</t>
+  </si>
+  <si>
     <t xml:space="preserve">نام</t>
   </si>
   <si>
@@ -49,10 +58,10 @@
     <t xml:space="preserve">نام پدر</t>
   </si>
   <si>
-    <t xml:space="preserve">شماره شناس‌نامه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شماره ملی</t>
+    <t xml:space="preserve">'شماره شناس‌نامه’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کد ملی</t>
   </si>
   <si>
     <t xml:space="preserve">تلفن همراه</t>
@@ -241,15 +250,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1018" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,25 +274,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -333,72 +342,81 @@
       </c>
       <c r="AA1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>1214</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>32</v>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>1313</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>1245</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>36</v>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
